--- a/Reports/Windows_Automation.xlsx
+++ b/Reports/Windows_Automation.xlsx
@@ -38,30 +38,33 @@
     <t>Tests/Windows/automation/remote/RemoteWebRtcFirefoxTest.MD</t>
   </si>
   <si>
-    <t>08/13/21 14:12:54</t>
+    <t>12/21/21 14:12:54</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Remote_003</t>
+  </si>
+  <si>
+    <t>RemoteTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/remote/RemoteTest.MD</t>
+  </si>
+  <si>
+    <t>Remote_001</t>
+  </si>
+  <si>
+    <t>AndroidTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/remote/AndroidTest.MD</t>
   </si>
   <si>
     <t>Not executed</t>
   </si>
   <si>
-    <t>Remote_003</t>
-  </si>
-  <si>
-    <t>RemoteTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/remote/RemoteTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_001</t>
-  </si>
-  <si>
-    <t>AndroidTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/remote/AndroidTest.MD</t>
-  </si>
-  <si>
     <t>Remote_002</t>
   </si>
   <si>
@@ -78,9 +81,6 @@
   </si>
   <si>
     <t>Tests/Windows/automation/remote/SaucelabsTest.MD</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
@@ -174,10 +174,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -217,24 +217,24 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -251,13 +251,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>

--- a/Reports/Windows_Automation.xlsx
+++ b/Reports/Windows_Automation.xlsx
@@ -62,28 +62,28 @@
     <t>Tests/Windows/automation/remote/AndroidTest.MD</t>
   </si>
   <si>
+    <t>Remote_002</t>
+  </si>
+  <si>
+    <t>AppiumTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/remote/AppiumTest.MD</t>
+  </si>
+  <si>
+    <t>Remote_005</t>
+  </si>
+  <si>
+    <t>SaucelabsTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/remote/SaucelabsTest.MD</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>Not executed</t>
-  </si>
-  <si>
-    <t>Remote_002</t>
-  </si>
-  <si>
-    <t>AppiumTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/remote/AppiumTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_005</t>
-  </si>
-  <si>
-    <t>SaucelabsTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/remote/SaucelabsTest.MD</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -177,7 +177,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -197,7 +197,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -217,24 +217,24 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -251,13 +251,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>

--- a/Reports/Windows_Automation.xlsx
+++ b/Reports/Windows_Automation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -29,6 +29,57 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
+    <t>Basic_002</t>
+  </si>
+  <si>
+    <t>EdgeTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/basic/EdgeTest.MD</t>
+  </si>
+  <si>
+    <t>08/13/21 14:31:20</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>Basic_003</t>
+  </si>
+  <si>
+    <t>FirefoxTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/basic/FirefoxTest.MD</t>
+  </si>
+  <si>
+    <t>08/13/21 14:06:04</t>
+  </si>
+  <si>
+    <t>Basic_004</t>
+  </si>
+  <si>
+    <t>InternetExplorerTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/basic/InternetExplorerTest.MD</t>
+  </si>
+  <si>
+    <t>08/18/21 18:36:31</t>
+  </si>
+  <si>
+    <t>Basic_001</t>
+  </si>
+  <si>
+    <t>ChromeTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/basic/ChromeTest.MD</t>
+  </si>
+  <si>
+    <t>08/13/21 14:06:47</t>
+  </si>
+  <si>
     <t>Remote_004</t>
   </si>
   <si>
@@ -81,9 +132,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Not executed</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -134,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,7 +222,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
         <v>5.0</v>
@@ -191,13 +239,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -205,45 +253,45 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -251,25 +299,93 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Windows_Automation.xlsx
+++ b/Reports/Windows_Automation.xlsx
@@ -38,100 +38,100 @@
     <t>Tests/Windows/automation/basic/EdgeTest.MD</t>
   </si>
   <si>
-    <t>08/13/21 14:31:20</t>
+    <t>12/21/21 14:31:20</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Basic_003</t>
+  </si>
+  <si>
+    <t>FirefoxTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/basic/FirefoxTest.MD</t>
+  </si>
+  <si>
+    <t>12/21/21 14:06:04</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Basic_004</t>
+  </si>
+  <si>
+    <t>InternetExplorerTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/basic/InternetExplorerTest.MD</t>
+  </si>
+  <si>
+    <t>12/21/21 18:36:31</t>
+  </si>
+  <si>
+    <t>Basic_001</t>
+  </si>
+  <si>
+    <t>ChromeTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/basic/ChromeTest.MD</t>
+  </si>
+  <si>
+    <t>12/21/21 14:06:47</t>
+  </si>
+  <si>
+    <t>Remote_004</t>
+  </si>
+  <si>
+    <t>RemoteWebRtcFirefoxTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/remote/RemoteWebRtcFirefoxTest.MD</t>
+  </si>
+  <si>
+    <t>12/21/21 14:12:54</t>
+  </si>
+  <si>
+    <t>Remote_003</t>
+  </si>
+  <si>
+    <t>RemoteTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/remote/RemoteTest.MD</t>
+  </si>
+  <si>
+    <t>Remote_001</t>
+  </si>
+  <si>
+    <t>AndroidTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/remote/AndroidTest.MD</t>
+  </si>
+  <si>
+    <t>Remote_002</t>
+  </si>
+  <si>
+    <t>AppiumTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/remote/AppiumTest.MD</t>
+  </si>
+  <si>
+    <t>Remote_005</t>
+  </si>
+  <si>
+    <t>SaucelabsTest</t>
+  </si>
+  <si>
+    <t>Tests/Windows/automation/remote/SaucelabsTest.MD</t>
   </si>
   <si>
     <t>Not executed</t>
-  </si>
-  <si>
-    <t>Basic_003</t>
-  </si>
-  <si>
-    <t>FirefoxTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/basic/FirefoxTest.MD</t>
-  </si>
-  <si>
-    <t>08/13/21 14:06:04</t>
-  </si>
-  <si>
-    <t>Basic_004</t>
-  </si>
-  <si>
-    <t>InternetExplorerTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/basic/InternetExplorerTest.MD</t>
-  </si>
-  <si>
-    <t>08/18/21 18:36:31</t>
-  </si>
-  <si>
-    <t>Basic_001</t>
-  </si>
-  <si>
-    <t>ChromeTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/basic/ChromeTest.MD</t>
-  </si>
-  <si>
-    <t>08/13/21 14:06:47</t>
-  </si>
-  <si>
-    <t>Remote_004</t>
-  </si>
-  <si>
-    <t>RemoteWebRtcFirefoxTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/remote/RemoteWebRtcFirefoxTest.MD</t>
-  </si>
-  <si>
-    <t>12/21/21 14:12:54</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Remote_003</t>
-  </si>
-  <si>
-    <t>RemoteTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/remote/RemoteTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_001</t>
-  </si>
-  <si>
-    <t>AndroidTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/remote/AndroidTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_002</t>
-  </si>
-  <si>
-    <t>AppiumTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/remote/AppiumTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_005</t>
-  </si>
-  <si>
-    <t>SaucelabsTest</t>
-  </si>
-  <si>
-    <t>Tests/Windows/automation/remote/SaucelabsTest.MD</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -222,10 +222,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -242,53 +242,53 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -299,19 +299,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -331,10 +331,10 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -348,10 +348,10 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -365,10 +365,10 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -382,10 +382,10 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
